--- a/results/mp/tinybert/corona/confidence/168/stop-words-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/stop-words-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="109">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,346 +40,304 @@
     <t>name</t>
   </si>
   <si>
-    <t>accused</t>
+    <t>killed</t>
   </si>
   <si>
     <t>arrested</t>
   </si>
   <si>
-    <t>kills</t>
-  </si>
-  <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>died</t>
   </si>
   <si>
-    <t>fraud</t>
+    <t>forced</t>
   </si>
   <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
     <t>warning</t>
   </si>
   <si>
-    <t>kill</t>
-  </si>
-  <si>
     <t>war</t>
   </si>
   <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
     <t>die</t>
   </si>
   <si>
-    <t>selfish</t>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>panic</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>anxiety</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>avoid</t>
+    <t>sc</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
     <t>fight</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
-    <t>shortage</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>proud</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>creative</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>fun</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>shares</t>
-  </si>
-  <si>
-    <t>super</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>prepared</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>production</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>full</t>
-  </si>
-  <si>
-    <t>customers</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>supermarket</t>
+    <t>workers</t>
+  </si>
+  <si>
+    <t>toilet</t>
   </si>
   <si>
     <t>san</t>
+  </si>
+  <si>
+    <t>food</t>
   </si>
   <si>
     <t>prices</t>
@@ -740,7 +698,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q83"/>
+  <dimension ref="A1:Q81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -748,10 +706,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="J1" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -812,10 +770,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -830,16 +788,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="M3">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -859,13 +817,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -877,19 +835,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="M4">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -909,13 +867,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -927,19 +885,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="M5">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -959,13 +917,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9090909090909091</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -977,19 +935,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="M6">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1009,13 +967,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1027,19 +985,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M7">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1059,13 +1017,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="C8">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1077,31 +1035,31 @@
         <v>0</v>
       </c>
       <c r="H8">
+        <v>9</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8">
+        <v>0.9661016949152542</v>
+      </c>
+      <c r="L8">
+        <v>57</v>
+      </c>
+      <c r="M8">
+        <v>57</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>2</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K8">
-        <v>0.96875</v>
-      </c>
-      <c r="L8">
-        <v>31</v>
-      </c>
-      <c r="M8">
-        <v>31</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1109,13 +1067,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7647058823529411</v>
+        <v>0.6712328767123288</v>
       </c>
       <c r="C9">
-        <v>13</v>
+        <v>196</v>
       </c>
       <c r="D9">
-        <v>13</v>
+        <v>196</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1127,19 +1085,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>96</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="K9">
-        <v>0.9583333333333334</v>
+        <v>0.875</v>
       </c>
       <c r="L9">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="M9">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1151,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1159,13 +1117,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7337662337662337</v>
+        <v>0.6</v>
       </c>
       <c r="C10">
-        <v>113</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>113</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1177,19 +1135,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="K10">
-        <v>0.9090909090909091</v>
+        <v>0.8658536585365854</v>
       </c>
       <c r="L10">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="M10">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1201,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1209,13 +1167,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7272727272727273</v>
+        <v>0.5</v>
       </c>
       <c r="C11">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D11">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1227,31 +1185,31 @@
         <v>0</v>
       </c>
       <c r="H11">
+        <v>19</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11">
+        <v>0.8636363636363636</v>
+      </c>
+      <c r="L11">
+        <v>19</v>
+      </c>
+      <c r="M11">
+        <v>19</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
         <v>3</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K11">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="L11">
-        <v>8</v>
-      </c>
-      <c r="M11">
-        <v>8</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1259,13 +1217,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6666666666666666</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D12">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1277,19 +1235,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="K12">
-        <v>0.8888888888888888</v>
+        <v>0.8478260869565217</v>
       </c>
       <c r="L12">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="M12">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1301,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1309,13 +1267,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6666666666666666</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="C13">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D13">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1327,19 +1285,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="K13">
-        <v>0.875</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L13">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="M13">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1351,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1359,7 +1317,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5833333333333334</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="C14">
         <v>14</v>
@@ -1377,19 +1335,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="K14">
-        <v>0.875</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L14">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="M14">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1401,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1409,13 +1367,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5625</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="C15">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D15">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1427,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="K15">
-        <v>0.8703703703703703</v>
+        <v>0.803921568627451</v>
       </c>
       <c r="L15">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="M15">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1451,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1459,13 +1417,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5</v>
+        <v>0.3137254901960784</v>
       </c>
       <c r="C16">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D16">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1477,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="K16">
-        <v>0.8627450980392157</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L16">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="M16">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1501,7 +1459,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1509,13 +1467,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5</v>
+        <v>0.2945736434108527</v>
       </c>
       <c r="C17">
-        <v>14</v>
+        <v>152</v>
       </c>
       <c r="D17">
-        <v>14</v>
+        <v>152</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1527,19 +1485,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>14</v>
+        <v>364</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="K17">
-        <v>0.825</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="L17">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="M17">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1551,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1559,13 +1517,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4736842105263158</v>
+        <v>0.2533333333333334</v>
       </c>
       <c r="C18">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D18">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1577,19 +1535,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="K18">
-        <v>0.8148148148148148</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L18">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="M18">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1601,7 +1559,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1609,13 +1567,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4506437768240343</v>
+        <v>0.2486772486772487</v>
       </c>
       <c r="C19">
-        <v>105</v>
+        <v>47</v>
       </c>
       <c r="D19">
-        <v>105</v>
+        <v>47</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1627,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="K19">
-        <v>0.8</v>
+        <v>0.7734375</v>
       </c>
       <c r="L19">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="M19">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1651,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>2</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1659,13 +1617,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4482758620689655</v>
+        <v>0.2416107382550336</v>
       </c>
       <c r="C20">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="D20">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1677,19 +1635,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="K20">
-        <v>0.7931034482758621</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="L20">
-        <v>23</v>
+        <v>108</v>
       </c>
       <c r="M20">
-        <v>23</v>
+        <v>108</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1701,7 +1659,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>6</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1709,13 +1667,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4444444444444444</v>
+        <v>0.1875</v>
       </c>
       <c r="C21">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D21">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1727,31 +1685,31 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="K21">
-        <v>0.7777777777777778</v>
+        <v>0.75</v>
       </c>
       <c r="L21">
+        <v>21</v>
+      </c>
+      <c r="M21">
+        <v>21</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
         <v>7</v>
-      </c>
-      <c r="M21">
-        <v>7</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1759,13 +1717,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4375</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C22">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="D22">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1777,19 +1735,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>9</v>
+        <v>216</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="K22">
-        <v>0.7777777777777778</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="L22">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="M22">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1801,7 +1759,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1809,49 +1767,49 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4117647058823529</v>
+        <v>0.07547169811320754</v>
       </c>
       <c r="C23">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D23">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23">
+        <v>343</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K23">
+        <v>0.7222222222222222</v>
+      </c>
+      <c r="L23">
+        <v>26</v>
+      </c>
+      <c r="M23">
+        <v>26</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
         <v>10</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K23">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="L23">
-        <v>7</v>
-      </c>
-      <c r="M23">
-        <v>7</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1859,37 +1817,37 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3846153846153846</v>
+        <v>0.005310321938267508</v>
       </c>
       <c r="C24">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D24">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>16</v>
+        <v>2997</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="K24">
-        <v>0.7692307692307693</v>
+        <v>0.7169811320754716</v>
       </c>
       <c r="L24">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="M24">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1901,7 +1859,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1909,973 +1867,661 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3809523809523809</v>
+        <v>0.00508582326764145</v>
       </c>
       <c r="C25">
+        <v>16</v>
+      </c>
+      <c r="D25">
+        <v>71</v>
+      </c>
+      <c r="E25">
+        <v>0.77</v>
+      </c>
+      <c r="F25">
+        <v>0.23</v>
+      </c>
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>3130</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K25">
+        <v>0.7037037037037037</v>
+      </c>
+      <c r="L25">
+        <v>19</v>
+      </c>
+      <c r="M25">
+        <v>19</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>8</v>
       </c>
-      <c r="D25">
-        <v>8</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25">
+    </row>
+    <row r="26" spans="1:17">
+      <c r="J26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K26">
+        <v>0.7021276595744681</v>
+      </c>
+      <c r="L26">
+        <v>33</v>
+      </c>
+      <c r="M26">
+        <v>33</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="J27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K27">
+        <v>0.68125</v>
+      </c>
+      <c r="L27">
+        <v>109</v>
+      </c>
+      <c r="M27">
+        <v>109</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="J28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K28">
+        <v>0.66</v>
+      </c>
+      <c r="L28">
+        <v>33</v>
+      </c>
+      <c r="M28">
+        <v>33</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="J29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K29">
+        <v>0.6507936507936508</v>
+      </c>
+      <c r="L29">
+        <v>41</v>
+      </c>
+      <c r="M29">
+        <v>41</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="J30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K30">
+        <v>0.6041666666666666</v>
+      </c>
+      <c r="L30">
+        <v>29</v>
+      </c>
+      <c r="M30">
+        <v>29</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="J31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K31">
+        <v>0.6</v>
+      </c>
+      <c r="L31">
+        <v>24</v>
+      </c>
+      <c r="M31">
+        <v>24</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="J32" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K32">
+        <v>0.577023498694517</v>
+      </c>
+      <c r="L32">
+        <v>221</v>
+      </c>
+      <c r="M32">
+        <v>221</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17">
+      <c r="J33" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K33">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="L33">
+        <v>16</v>
+      </c>
+      <c r="M33">
+        <v>16</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K34">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="L34">
+        <v>16</v>
+      </c>
+      <c r="M34">
+        <v>16</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K35">
+        <v>0.5638297872340425</v>
+      </c>
+      <c r="L35">
+        <v>53</v>
+      </c>
+      <c r="M35">
+        <v>53</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K36">
+        <v>0.5588235294117647</v>
+      </c>
+      <c r="L36">
+        <v>19</v>
+      </c>
+      <c r="M36">
+        <v>19</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K37">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="L37">
+        <v>25</v>
+      </c>
+      <c r="M37">
+        <v>25</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K38">
+        <v>0.5254237288135594</v>
+      </c>
+      <c r="L38">
+        <v>155</v>
+      </c>
+      <c r="M38">
+        <v>155</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K39">
+        <v>0.5176470588235295</v>
+      </c>
+      <c r="L39">
+        <v>176</v>
+      </c>
+      <c r="M39">
+        <v>176</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K40">
+        <v>0.5168539325842697</v>
+      </c>
+      <c r="L40">
+        <v>46</v>
+      </c>
+      <c r="M40">
+        <v>46</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K41">
+        <v>0.5151515151515151</v>
+      </c>
+      <c r="L41">
+        <v>17</v>
+      </c>
+      <c r="M41">
+        <v>17</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K42">
+        <v>0.5142857142857142</v>
+      </c>
+      <c r="L42">
+        <v>18</v>
+      </c>
+      <c r="M42">
+        <v>18</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K43">
+        <v>0.4794520547945205</v>
+      </c>
+      <c r="L43">
+        <v>35</v>
+      </c>
+      <c r="M43">
+        <v>35</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K44">
+        <v>0.4642857142857143</v>
+      </c>
+      <c r="L44">
         <v>13</v>
       </c>
-      <c r="J25" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K25">
-        <v>0.7692307692307693</v>
-      </c>
-      <c r="L25">
-        <v>10</v>
-      </c>
-      <c r="M25">
-        <v>10</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="A26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26">
-        <v>0.3703703703703703</v>
-      </c>
-      <c r="C26">
-        <v>10</v>
-      </c>
-      <c r="D26">
-        <v>10</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>17</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K26">
-        <v>0.7647058823529411</v>
-      </c>
-      <c r="L26">
+      <c r="M44">
         <v>13</v>
       </c>
-      <c r="M26">
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K45">
+        <v>0.45</v>
+      </c>
+      <c r="L45">
+        <v>18</v>
+      </c>
+      <c r="M45">
+        <v>18</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="10:17">
+      <c r="J46" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K46">
+        <v>0.4461538461538462</v>
+      </c>
+      <c r="L46">
+        <v>29</v>
+      </c>
+      <c r="M46">
+        <v>29</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="10:17">
+      <c r="J47" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K47">
+        <v>0.4193548387096774</v>
+      </c>
+      <c r="L47">
         <v>13</v>
       </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="A27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27">
-        <v>0.3181818181818182</v>
-      </c>
-      <c r="C27">
-        <v>7</v>
-      </c>
-      <c r="D27">
-        <v>7</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>15</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K27">
-        <v>0.76</v>
-      </c>
-      <c r="L27">
-        <v>19</v>
-      </c>
-      <c r="M27">
-        <v>19</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="A28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28">
-        <v>0.3</v>
-      </c>
-      <c r="C28">
-        <v>24</v>
-      </c>
-      <c r="D28">
-        <v>24</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>56</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K28">
-        <v>0.75</v>
-      </c>
-      <c r="L28">
-        <v>42</v>
-      </c>
-      <c r="M28">
-        <v>42</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="A29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29">
-        <v>0.275</v>
-      </c>
-      <c r="C29">
-        <v>11</v>
-      </c>
-      <c r="D29">
-        <v>11</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>29</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K29">
-        <v>0.75</v>
-      </c>
-      <c r="L29">
+      <c r="M47">
+        <v>13</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
         <v>18</v>
       </c>
-      <c r="M29">
-        <v>18</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="A30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30">
-        <v>0.2727272727272727</v>
-      </c>
-      <c r="C30">
-        <v>9</v>
-      </c>
-      <c r="D30">
-        <v>9</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>24</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K30">
-        <v>0.75</v>
-      </c>
-      <c r="L30">
-        <v>9</v>
-      </c>
-      <c r="M30">
-        <v>9</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="A31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31">
-        <v>0.2608695652173913</v>
-      </c>
-      <c r="C31">
-        <v>12</v>
-      </c>
-      <c r="D31">
-        <v>12</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>34</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K31">
-        <v>0.7450980392156863</v>
-      </c>
-      <c r="L31">
+    </row>
+    <row r="48" spans="10:17">
+      <c r="J48" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K48">
+        <v>0.40625</v>
+      </c>
+      <c r="L48">
+        <v>26</v>
+      </c>
+      <c r="M48">
+        <v>26</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q48">
         <v>38</v>
-      </c>
-      <c r="M31">
-        <v>38</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="A32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32">
-        <v>0.2441860465116279</v>
-      </c>
-      <c r="C32">
-        <v>21</v>
-      </c>
-      <c r="D32">
-        <v>21</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>65</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K32">
-        <v>0.7272727272727273</v>
-      </c>
-      <c r="L32">
-        <v>8</v>
-      </c>
-      <c r="M32">
-        <v>8</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
-      <c r="A33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33">
-        <v>0.2363636363636364</v>
-      </c>
-      <c r="C33">
-        <v>26</v>
-      </c>
-      <c r="D33">
-        <v>26</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>84</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K33">
-        <v>0.7272727272727273</v>
-      </c>
-      <c r="L33">
-        <v>24</v>
-      </c>
-      <c r="M33">
-        <v>24</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17">
-      <c r="A34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34">
-        <v>0.1842105263157895</v>
-      </c>
-      <c r="C34">
-        <v>7</v>
-      </c>
-      <c r="D34">
-        <v>7</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>31</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K34">
-        <v>0.717948717948718</v>
-      </c>
-      <c r="L34">
-        <v>28</v>
-      </c>
-      <c r="M34">
-        <v>28</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
-      <c r="A35" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35">
-        <v>0.09677419354838709</v>
-      </c>
-      <c r="C35">
-        <v>18</v>
-      </c>
-      <c r="D35">
-        <v>18</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>168</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K35">
-        <v>0.7068965517241379</v>
-      </c>
-      <c r="L35">
-        <v>41</v>
-      </c>
-      <c r="M35">
-        <v>41</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="A36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36">
-        <v>0.007373271889400922</v>
-      </c>
-      <c r="C36">
-        <v>8</v>
-      </c>
-      <c r="D36">
-        <v>46</v>
-      </c>
-      <c r="E36">
-        <v>0.83</v>
-      </c>
-      <c r="F36">
-        <v>0.17</v>
-      </c>
-      <c r="G36" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36">
-        <v>1077</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K36">
-        <v>0.7058823529411765</v>
-      </c>
-      <c r="L36">
-        <v>12</v>
-      </c>
-      <c r="M36">
-        <v>12</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="A37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37">
-        <v>0.005886200130804447</v>
-      </c>
-      <c r="C37">
-        <v>9</v>
-      </c>
-      <c r="D37">
-        <v>44</v>
-      </c>
-      <c r="E37">
-        <v>0.8</v>
-      </c>
-      <c r="F37">
-        <v>0.2</v>
-      </c>
-      <c r="G37" t="b">
-        <v>1</v>
-      </c>
-      <c r="H37">
-        <v>1520</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K37">
-        <v>0.7</v>
-      </c>
-      <c r="L37">
-        <v>7</v>
-      </c>
-      <c r="M37">
-        <v>7</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="A38" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38">
-        <v>0.004438807863031071</v>
-      </c>
-      <c r="C38">
-        <v>7</v>
-      </c>
-      <c r="D38">
-        <v>27</v>
-      </c>
-      <c r="E38">
-        <v>0.74</v>
-      </c>
-      <c r="F38">
-        <v>0.26</v>
-      </c>
-      <c r="G38" t="b">
-        <v>1</v>
-      </c>
-      <c r="H38">
-        <v>1570</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K38">
-        <v>0.6923076923076923</v>
-      </c>
-      <c r="L38">
-        <v>18</v>
-      </c>
-      <c r="M38">
-        <v>18</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="J39" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K39">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="L39">
-        <v>8</v>
-      </c>
-      <c r="M39">
-        <v>8</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="J40" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K40">
-        <v>0.6575342465753424</v>
-      </c>
-      <c r="L40">
-        <v>48</v>
-      </c>
-      <c r="M40">
-        <v>48</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="J41" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K41">
-        <v>0.6363636363636364</v>
-      </c>
-      <c r="L41">
-        <v>7</v>
-      </c>
-      <c r="M41">
-        <v>7</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="J42" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K42">
-        <v>0.6363636363636364</v>
-      </c>
-      <c r="L42">
-        <v>7</v>
-      </c>
-      <c r="M42">
-        <v>7</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
-      <c r="J43" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K43">
-        <v>0.6333333333333333</v>
-      </c>
-      <c r="L43">
-        <v>19</v>
-      </c>
-      <c r="M43">
-        <v>19</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17">
-      <c r="J44" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K44">
-        <v>0.631578947368421</v>
-      </c>
-      <c r="L44">
-        <v>12</v>
-      </c>
-      <c r="M44">
-        <v>12</v>
-      </c>
-      <c r="N44">
-        <v>1</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17">
-      <c r="J45" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K45">
-        <v>0.6103286384976526</v>
-      </c>
-      <c r="L45">
-        <v>130</v>
-      </c>
-      <c r="M45">
-        <v>130</v>
-      </c>
-      <c r="N45">
-        <v>1</v>
-      </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
-      <c r="P45" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q45">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17">
-      <c r="J46" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="K46">
-        <v>0.6</v>
-      </c>
-      <c r="L46">
-        <v>12</v>
-      </c>
-      <c r="M46">
-        <v>12</v>
-      </c>
-      <c r="N46">
-        <v>1</v>
-      </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="P46" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17">
-      <c r="J47" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K47">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="L47">
-        <v>8</v>
-      </c>
-      <c r="M47">
-        <v>8</v>
-      </c>
-      <c r="N47">
-        <v>1</v>
-      </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-      <c r="P47" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
-      <c r="J48" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="K48">
-        <v>0.5625</v>
-      </c>
-      <c r="L48">
-        <v>81</v>
-      </c>
-      <c r="M48">
-        <v>81</v>
-      </c>
-      <c r="N48">
-        <v>1</v>
-      </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
-      <c r="P48" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q48">
-        <v>63</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K49">
-        <v>0.5600000000000001</v>
+        <v>0.4042553191489361</v>
       </c>
       <c r="L49">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M49">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2887,21 +2533,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="K50">
-        <v>0.5384615384615384</v>
+        <v>0.3807531380753138</v>
       </c>
       <c r="L50">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="M50">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2913,21 +2559,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>6</v>
+        <v>148</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K51">
-        <v>0.5384615384615384</v>
+        <v>0.3717948717948718</v>
       </c>
       <c r="L51">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="M51">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2939,21 +2585,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>6</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="K52">
-        <v>0.5384615384615384</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="L52">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="M52">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2965,21 +2611,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>6</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="K53">
-        <v>0.5357142857142857</v>
+        <v>0.3194444444444444</v>
       </c>
       <c r="L53">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M53">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2991,15 +2637,15 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>13</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="K54">
-        <v>0.52</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="L54">
         <v>13</v>
@@ -3017,21 +2663,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="K55">
-        <v>0.5193798449612403</v>
+        <v>0.2372881355932203</v>
       </c>
       <c r="L55">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="M55">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -3043,21 +2689,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>62</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="K56">
-        <v>0.4857142857142857</v>
+        <v>0.2131147540983606</v>
       </c>
       <c r="L56">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M56">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -3069,21 +2715,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>18</v>
+        <v>48</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="K57">
-        <v>0.4782608695652174</v>
+        <v>0.1450381679389313</v>
       </c>
       <c r="L57">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="M57">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -3095,21 +2741,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>48</v>
+        <v>112</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="K58">
-        <v>0.45</v>
+        <v>0.1383647798742138</v>
       </c>
       <c r="L58">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="M58">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -3121,21 +2767,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>11</v>
+        <v>137</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="K59">
-        <v>0.375</v>
+        <v>0.134020618556701</v>
       </c>
       <c r="L59">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M59">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -3147,21 +2793,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>20</v>
+        <v>84</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="K60">
-        <v>0.3684210526315789</v>
+        <v>0.1181102362204724</v>
       </c>
       <c r="L60">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M60">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -3173,21 +2819,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>24</v>
+        <v>112</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="K61">
-        <v>0.3636363636363636</v>
+        <v>0.09569377990430622</v>
       </c>
       <c r="L61">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="M61">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -3199,21 +2845,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>14</v>
+        <v>378</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="K62">
-        <v>0.3513513513513514</v>
+        <v>0.08484848484848485</v>
       </c>
       <c r="L62">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M62">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -3225,21 +2871,21 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>24</v>
+        <v>151</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="K63">
-        <v>0.3043478260869565</v>
+        <v>0.07975460122699386</v>
       </c>
       <c r="L63">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="M63">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -3251,21 +2897,21 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>16</v>
+        <v>150</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="K64">
-        <v>0.28</v>
+        <v>0.0755813953488372</v>
       </c>
       <c r="L64">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="M64">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -3277,21 +2923,21 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>18</v>
+        <v>159</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="K65">
-        <v>0.2580645161290323</v>
+        <v>0.07211538461538461</v>
       </c>
       <c r="L65">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="M65">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -3303,73 +2949,73 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>23</v>
+        <v>386</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="K66">
-        <v>0.2162162162162162</v>
+        <v>0.07054871220604703</v>
       </c>
       <c r="L66">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="M66">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="N66">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O66">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q66">
-        <v>29</v>
+        <v>830</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="K67">
-        <v>0.1842105263157895</v>
+        <v>0.07009345794392523</v>
       </c>
       <c r="L67">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="M67">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="N67">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O67">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q67">
-        <v>31</v>
+        <v>199</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="K68">
-        <v>0.1818181818181818</v>
+        <v>0.06956521739130435</v>
       </c>
       <c r="L68">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="M68">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -3381,21 +3027,21 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>36</v>
+        <v>214</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="K69">
-        <v>0.1458333333333333</v>
+        <v>0.06727828746177369</v>
       </c>
       <c r="L69">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="M69">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -3407,21 +3053,21 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>41</v>
+        <v>305</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="K70">
-        <v>0.1014492753623188</v>
+        <v>0.05216426193118757</v>
       </c>
       <c r="L70">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="M70">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -3433,21 +3079,21 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>62</v>
+        <v>854</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="K71">
-        <v>0.09876543209876543</v>
+        <v>0.04923076923076923</v>
       </c>
       <c r="L71">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="M71">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -3459,99 +3105,99 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>73</v>
+        <v>618</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="K72">
-        <v>0.07655502392344497</v>
+        <v>0.04887218045112782</v>
       </c>
       <c r="L72">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M72">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N72">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O72">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q72">
-        <v>193</v>
+        <v>253</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="K73">
-        <v>0.07575757575757576</v>
+        <v>0.04618937644341801</v>
       </c>
       <c r="L73">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="M73">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="N73">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O73">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q73">
-        <v>183</v>
+        <v>826</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="K74">
-        <v>0.07142857142857142</v>
+        <v>0.04543325526932084</v>
       </c>
       <c r="L74">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="M74">
-        <v>8</v>
+        <v>105</v>
       </c>
       <c r="N74">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="O74">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q74">
-        <v>104</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="K75">
-        <v>0.06097560975609756</v>
+        <v>0.04333333333333333</v>
       </c>
       <c r="L75">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M75">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -3563,215 +3209,163 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>385</v>
+        <v>287</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="K76">
-        <v>0.05732484076433121</v>
+        <v>0.03893805309734513</v>
       </c>
       <c r="L76">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M76">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="N76">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="O76">
-        <v>0.05000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P76" t="b">
         <v>1</v>
       </c>
       <c r="Q76">
-        <v>296</v>
+        <v>543</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="K77">
-        <v>0.05647058823529412</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="L77">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="M77">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="N77">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O77">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q77">
-        <v>401</v>
+        <v>468</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>120</v>
+        <v>29</v>
       </c>
       <c r="K78">
-        <v>0.03837471783295711</v>
+        <v>0.03041087026852151</v>
       </c>
       <c r="L78">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="M78">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="N78">
-        <v>0.9399999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="O78">
-        <v>0.06000000000000005</v>
+        <v>0.15</v>
       </c>
       <c r="P78" t="b">
         <v>1</v>
       </c>
       <c r="Q78">
-        <v>426</v>
+        <v>2997</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="K79">
-        <v>0.03571428571428571</v>
+        <v>0.02606882168925964</v>
       </c>
       <c r="L79">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="M79">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="N79">
-        <v>1</v>
+        <v>0.74</v>
       </c>
       <c r="O79">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="P79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q79">
-        <v>270</v>
+        <v>934</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="K80">
-        <v>0.03408071748878923</v>
+        <v>0.01726844583987441</v>
       </c>
       <c r="L80">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="M80">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="N80">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="O80">
-        <v>0.17</v>
+        <v>0.23</v>
       </c>
       <c r="P80" t="b">
         <v>1</v>
       </c>
       <c r="Q80">
-        <v>1077</v>
+        <v>3130</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="K81">
-        <v>0.022508038585209</v>
+        <v>0.01551724137931034</v>
       </c>
       <c r="L81">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="M81">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="N81">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="O81">
-        <v>0.2</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P81" t="b">
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>1520</v>
-      </c>
-    </row>
-    <row r="82" spans="10:17">
-      <c r="J82" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K82">
-        <v>0.01257861635220126</v>
-      </c>
-      <c r="L82">
-        <v>20</v>
-      </c>
-      <c r="M82">
-        <v>27</v>
-      </c>
-      <c r="N82">
-        <v>0.74</v>
-      </c>
-      <c r="O82">
-        <v>0.26</v>
-      </c>
-      <c r="P82" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q82">
-        <v>1570</v>
-      </c>
-    </row>
-    <row r="83" spans="10:17">
-      <c r="J83" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="K83">
-        <v>0.01145662847790507</v>
-      </c>
-      <c r="L83">
-        <v>7</v>
-      </c>
-      <c r="M83">
-        <v>9</v>
-      </c>
-      <c r="N83">
-        <v>0.78</v>
-      </c>
-      <c r="O83">
-        <v>0.22</v>
-      </c>
-      <c r="P83" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q83">
-        <v>604</v>
+        <v>1142</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/168/stop-words-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/stop-words-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="110">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,52 +40,46 @@
     <t>name</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>arrested</t>
   </si>
   <si>
     <t>crude</t>
   </si>
   <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>warning</t>
+    <t>die</t>
+  </si>
+  <si>
+    <t>fear</t>
   </si>
   <si>
     <t>war</t>
   </si>
   <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>fears</t>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>fuck</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
-    <t>emergency</t>
+    <t>avoid</t>
   </si>
   <si>
     <t>sc</t>
@@ -94,6 +88,9 @@
     <t>low</t>
   </si>
   <si>
+    <t>risk</t>
+  </si>
+  <si>
     <t>fight</t>
   </si>
   <si>
@@ -112,229 +109,235 @@
     <t>negative</t>
   </si>
   <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>safely</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>beauty</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>love</t>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>safety</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>safe</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>friends</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>boost</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>better</t>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>energy</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>important</t>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>hope</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
     <t>save</t>
   </si>
   <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
     <t>key</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
     <t>increased</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
     <t>helping</t>
   </si>
   <si>
     <t>give</t>
   </si>
   <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
     <t>health</t>
   </si>
   <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>retail</t>
   </si>
   <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>shopping</t>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>home</t>
   </si>
   <si>
     <t>store</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
     <t>stock</t>
   </si>
   <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
     <t>grocery</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>workers</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>san</t>
   </si>
   <si>
     <t>food</t>
@@ -698,7 +701,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q81"/>
+  <dimension ref="A1:Q83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -706,10 +709,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -767,37 +770,37 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C3">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <v>14</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
         <v>13</v>
       </c>
-      <c r="D3">
+      <c r="M3">
         <v>13</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>26</v>
-      </c>
-      <c r="M3">
-        <v>26</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -817,37 +820,37 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8666666666666667</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="C4">
+        <v>27</v>
+      </c>
+      <c r="D4">
+        <v>27</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>7</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
         <v>13</v>
       </c>
-      <c r="D4">
+      <c r="M4">
         <v>13</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>33</v>
-      </c>
-      <c r="M4">
-        <v>33</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -867,13 +870,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8235294117647058</v>
+        <v>0.68</v>
       </c>
       <c r="C5">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -885,19 +888,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="L5">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M5">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -909,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -917,13 +920,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6944444444444444</v>
+        <v>0.6438356164383562</v>
       </c>
       <c r="C6">
-        <v>25</v>
+        <v>188</v>
       </c>
       <c r="D6">
-        <v>25</v>
+        <v>188</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -935,19 +938,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L6">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M6">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -959,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -967,13 +970,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6923076923076923</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C7">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D7">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -985,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L7">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="M7">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1009,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1017,13 +1020,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6896551724137931</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1035,19 +1038,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K8">
-        <v>0.9661016949152542</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L8">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="M8">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1059,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1067,13 +1070,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6712328767123288</v>
+        <v>0.5862068965517241</v>
       </c>
       <c r="C9">
-        <v>196</v>
+        <v>17</v>
       </c>
       <c r="D9">
-        <v>196</v>
+        <v>17</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1085,19 +1088,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K9">
-        <v>0.875</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L9">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="M9">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1109,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1117,13 +1120,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6</v>
+        <v>0.5135135135135135</v>
       </c>
       <c r="C10">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D10">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1135,19 +1138,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K10">
-        <v>0.8658536585365854</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L10">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="M10">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1159,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1170,10 +1173,10 @@
         <v>0.5</v>
       </c>
       <c r="C11">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D11">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1185,19 +1188,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11">
-        <v>0.8636363636363636</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L11">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M11">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1217,49 +1220,49 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4666666666666667</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="C12">
+        <v>18</v>
+      </c>
+      <c r="D12">
+        <v>18</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>20</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K12">
+        <v>0.875</v>
+      </c>
+      <c r="L12">
+        <v>98</v>
+      </c>
+      <c r="M12">
+        <v>98</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>14</v>
-      </c>
-      <c r="D12">
-        <v>14</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>16</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K12">
-        <v>0.8478260869565217</v>
-      </c>
-      <c r="L12">
-        <v>39</v>
-      </c>
-      <c r="M12">
-        <v>39</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1267,13 +1270,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4358974358974359</v>
+        <v>0.3466666666666667</v>
       </c>
       <c r="C13">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D13">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1285,19 +1288,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K13">
-        <v>0.8275862068965517</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L13">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M13">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1309,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1317,13 +1320,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3783783783783784</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1335,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K14">
-        <v>0.8148148148148148</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="L14">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M14">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1359,7 +1362,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1367,13 +1370,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3783783783783784</v>
+        <v>0.2926356589147287</v>
       </c>
       <c r="C15">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="D15">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1385,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>23</v>
+        <v>365</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K15">
-        <v>0.803921568627451</v>
+        <v>0.8125</v>
       </c>
       <c r="L15">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M15">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1409,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1417,13 +1420,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3137254901960784</v>
+        <v>0.2545454545454545</v>
       </c>
       <c r="C16">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D16">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1435,19 +1438,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K16">
-        <v>0.7916666666666666</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L16">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="M16">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1459,7 +1462,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1467,13 +1470,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.2945736434108527</v>
+        <v>0.2486772486772487</v>
       </c>
       <c r="C17">
-        <v>152</v>
+        <v>47</v>
       </c>
       <c r="D17">
-        <v>152</v>
+        <v>47</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1485,19 +1488,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>364</v>
+        <v>142</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K17">
-        <v>0.7833333333333333</v>
+        <v>0.8046875</v>
       </c>
       <c r="L17">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="M17">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1509,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1517,13 +1520,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.2533333333333334</v>
+        <v>0.2416107382550336</v>
       </c>
       <c r="C18">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="D18">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1535,19 +1538,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K18">
-        <v>0.7777777777777778</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L18">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="M18">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1559,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1567,37 +1570,37 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.2486772486772487</v>
+        <v>0.2207792207792208</v>
       </c>
       <c r="C19">
+        <v>17</v>
+      </c>
+      <c r="D19">
+        <v>17</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>60</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D19">
-        <v>47</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>142</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="K19">
-        <v>0.7734375</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L19">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="M19">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1609,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>29</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1617,13 +1620,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.2416107382550336</v>
+        <v>0.2</v>
       </c>
       <c r="C20">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="D20">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1635,19 +1638,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>113</v>
+        <v>64</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K20">
-        <v>0.7605633802816901</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="L20">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="M20">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1659,7 +1662,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1667,13 +1670,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.1875</v>
+        <v>0.0992063492063492</v>
       </c>
       <c r="C21">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D21">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1685,19 +1688,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>65</v>
+        <v>227</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K21">
         <v>0.75</v>
       </c>
       <c r="L21">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M21">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1709,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1717,13 +1720,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.1428571428571428</v>
+        <v>0.05093833780160858</v>
       </c>
       <c r="C22">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D22">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1735,19 +1738,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>216</v>
+        <v>354</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K22">
-        <v>0.7391304347826086</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L22">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="M22">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1759,7 +1762,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1767,37 +1770,37 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.07547169811320754</v>
+        <v>0.004618937644341801</v>
       </c>
       <c r="C23">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D23">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="E23">
-        <v>0.07000000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="F23">
-        <v>0.9299999999999999</v>
+        <v>0.16</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
       </c>
       <c r="H23">
-        <v>343</v>
+        <v>3017</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K23">
-        <v>0.7222222222222222</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L23">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="M23">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1809,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1817,113 +1820,89 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.005310321938267508</v>
+        <v>0.004477134633834346</v>
       </c>
       <c r="C24">
+        <v>14</v>
+      </c>
+      <c r="D24">
+        <v>88</v>
+      </c>
+      <c r="E24">
+        <v>0.84</v>
+      </c>
+      <c r="F24">
+        <v>0.16</v>
+      </c>
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>3113</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K24">
+        <v>0.7254901960784313</v>
+      </c>
+      <c r="L24">
+        <v>37</v>
+      </c>
+      <c r="M24">
+        <v>37</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="J25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K25">
+        <v>0.7241379310344828</v>
+      </c>
+      <c r="L25">
+        <v>42</v>
+      </c>
+      <c r="M25">
+        <v>42</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>16</v>
-      </c>
-      <c r="D24">
-        <v>110</v>
-      </c>
-      <c r="E24">
-        <v>0.85</v>
-      </c>
-      <c r="F24">
-        <v>0.15</v>
-      </c>
-      <c r="G24" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <v>2997</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K24">
-        <v>0.7169811320754716</v>
-      </c>
-      <c r="L24">
-        <v>76</v>
-      </c>
-      <c r="M24">
-        <v>76</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="A25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25">
-        <v>0.00508582326764145</v>
-      </c>
-      <c r="C25">
-        <v>16</v>
-      </c>
-      <c r="D25">
-        <v>71</v>
-      </c>
-      <c r="E25">
-        <v>0.77</v>
-      </c>
-      <c r="F25">
-        <v>0.23</v>
-      </c>
-      <c r="G25" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <v>3130</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K25">
-        <v>0.7037037037037037</v>
-      </c>
-      <c r="L25">
-        <v>19</v>
-      </c>
-      <c r="M25">
-        <v>19</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K26">
-        <v>0.7021276595744681</v>
+        <v>0.7112676056338029</v>
       </c>
       <c r="L26">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="M26">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1935,21 +1914,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K27">
-        <v>0.68125</v>
+        <v>0.7</v>
       </c>
       <c r="L27">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="M27">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1961,21 +1940,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K28">
-        <v>0.66</v>
+        <v>0.6792452830188679</v>
       </c>
       <c r="L28">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="M28">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1987,21 +1966,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K29">
-        <v>0.6507936507936508</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L29">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="M29">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2013,21 +1992,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K30">
-        <v>0.6041666666666666</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L30">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="M30">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2039,21 +2018,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K31">
-        <v>0.6</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="L31">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="M31">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2065,21 +2044,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K32">
-        <v>0.577023498694517</v>
+        <v>0.62</v>
       </c>
       <c r="L32">
-        <v>221</v>
+        <v>31</v>
       </c>
       <c r="M32">
-        <v>221</v>
+        <v>31</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2091,21 +2070,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>162</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K33">
-        <v>0.5714285714285714</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="L33">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="M33">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2117,21 +2096,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K34">
-        <v>0.5714285714285714</v>
+        <v>0.6063829787234043</v>
       </c>
       <c r="L34">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="M34">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2143,21 +2122,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K35">
-        <v>0.5638297872340425</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="L35">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="M35">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2169,21 +2148,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K36">
-        <v>0.5588235294117647</v>
+        <v>0.5822454308093995</v>
       </c>
       <c r="L36">
-        <v>19</v>
+        <v>223</v>
       </c>
       <c r="M36">
-        <v>19</v>
+        <v>223</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2195,21 +2174,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>15</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K37">
-        <v>0.5555555555555556</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L37">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="M37">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2221,21 +2200,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K38">
-        <v>0.5254237288135594</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L38">
-        <v>155</v>
+        <v>16</v>
       </c>
       <c r="M38">
-        <v>155</v>
+        <v>16</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2247,21 +2226,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>140</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K39">
-        <v>0.5176470588235295</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L39">
-        <v>176</v>
+        <v>25</v>
       </c>
       <c r="M39">
-        <v>176</v>
+        <v>25</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2273,21 +2252,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>164</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K40">
-        <v>0.5168539325842697</v>
+        <v>0.55</v>
       </c>
       <c r="L40">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="M40">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2299,21 +2278,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>43</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K41">
-        <v>0.5151515151515151</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="L41">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M41">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2325,21 +2304,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K42">
-        <v>0.5142857142857142</v>
+        <v>0.5280898876404494</v>
       </c>
       <c r="L42">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="M42">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2351,21 +2330,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>17</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K43">
-        <v>0.4794520547945205</v>
+        <v>0.5029411764705882</v>
       </c>
       <c r="L43">
-        <v>35</v>
+        <v>171</v>
       </c>
       <c r="M43">
-        <v>35</v>
+        <v>171</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2377,21 +2356,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>38</v>
+        <v>169</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K44">
-        <v>0.4642857142857143</v>
+        <v>0.4743589743589743</v>
       </c>
       <c r="L44">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M44">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2403,21 +2382,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K45">
-        <v>0.45</v>
+        <v>0.4651162790697674</v>
       </c>
       <c r="L45">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M45">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2429,21 +2408,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K46">
-        <v>0.4461538461538462</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L46">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M46">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2455,21 +2434,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K47">
-        <v>0.4193548387096774</v>
+        <v>0.4610169491525424</v>
       </c>
       <c r="L47">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="M47">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2481,21 +2460,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>18</v>
+        <v>159</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K48">
-        <v>0.40625</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="L48">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="M48">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2507,21 +2486,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K49">
-        <v>0.4042553191489361</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="L49">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="M49">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2533,21 +2512,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K50">
-        <v>0.3807531380753138</v>
+        <v>0.4142259414225942</v>
       </c>
       <c r="L50">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="M50">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2559,21 +2538,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K51">
-        <v>0.3717948717948718</v>
+        <v>0.40625</v>
       </c>
       <c r="L51">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M51">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2585,21 +2564,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K52">
-        <v>0.3571428571428572</v>
+        <v>0.3972602739726027</v>
       </c>
       <c r="L52">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M52">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2611,21 +2590,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K53">
-        <v>0.3194444444444444</v>
+        <v>0.3404255319148936</v>
       </c>
       <c r="L53">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="M53">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2637,21 +2616,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>49</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K54">
-        <v>0.3023255813953488</v>
+        <v>0.3285714285714286</v>
       </c>
       <c r="L54">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M54">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2663,41 +2642,41 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>30</v>
+        <v>47</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K55">
-        <v>0.2372881355932203</v>
+        <v>0.2957746478873239</v>
       </c>
       <c r="L55">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="M55">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="N55">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O55">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q55">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K56">
-        <v>0.2131147540983606</v>
+        <v>0.2203389830508475</v>
       </c>
       <c r="L56">
         <v>13</v>
@@ -2715,21 +2694,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K57">
-        <v>0.1450381679389313</v>
+        <v>0.2131147540983606</v>
       </c>
       <c r="L57">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M57">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2741,21 +2720,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>112</v>
+        <v>48</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K58">
-        <v>0.1383647798742138</v>
+        <v>0.1889763779527559</v>
       </c>
       <c r="L58">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M58">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2767,47 +2746,47 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>137</v>
+        <v>103</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K59">
-        <v>0.134020618556701</v>
+        <v>0.1408450704225352</v>
       </c>
       <c r="L59">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M59">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="N59">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O59">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q59">
-        <v>84</v>
+        <v>183</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K60">
-        <v>0.1181102362204724</v>
+        <v>0.1120689655172414</v>
       </c>
       <c r="L60">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M60">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2819,21 +2798,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K61">
-        <v>0.09569377990430622</v>
+        <v>0.1105769230769231</v>
       </c>
       <c r="L61">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="M61">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2845,73 +2824,73 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>378</v>
+        <v>370</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K62">
-        <v>0.08484848484848485</v>
+        <v>0.1004366812227074</v>
       </c>
       <c r="L62">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="M62">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="N62">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O62">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q62">
-        <v>151</v>
+        <v>206</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K63">
-        <v>0.07975460122699386</v>
+        <v>0.1</v>
       </c>
       <c r="L63">
         <v>13</v>
       </c>
       <c r="M63">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N63">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O63">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q63">
-        <v>150</v>
+        <v>117</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K64">
-        <v>0.0755813953488372</v>
+        <v>0.09883720930232558</v>
       </c>
       <c r="L64">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M64">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2923,99 +2902,99 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K65">
-        <v>0.07211538461538461</v>
+        <v>0.09112709832134293</v>
       </c>
       <c r="L65">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="M65">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="N65">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O65">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q65">
-        <v>386</v>
+        <v>379</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K66">
-        <v>0.07054871220604703</v>
+        <v>0.08536585365853659</v>
       </c>
       <c r="L66">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="M66">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="N66">
-        <v>0.98</v>
+        <v>0.93</v>
       </c>
       <c r="O66">
-        <v>0.02000000000000002</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P66" t="b">
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>830</v>
+        <v>150</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K67">
-        <v>0.07009345794392523</v>
+        <v>0.08176100628930817</v>
       </c>
       <c r="L67">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M67">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N67">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O67">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q67">
-        <v>199</v>
+        <v>146</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K68">
-        <v>0.06956521739130435</v>
+        <v>0.08176100628930817</v>
       </c>
       <c r="L68">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M68">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -3027,47 +3006,47 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>214</v>
+        <v>146</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K69">
-        <v>0.06727828746177369</v>
+        <v>0.07608695652173914</v>
       </c>
       <c r="L69">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="M69">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="N69">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O69">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q69">
-        <v>305</v>
+        <v>170</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K70">
-        <v>0.05216426193118757</v>
+        <v>0.07441860465116279</v>
       </c>
       <c r="L70">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="M70">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -3079,99 +3058,99 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>854</v>
+        <v>199</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K71">
-        <v>0.04923076923076923</v>
+        <v>0.06494960806270997</v>
       </c>
       <c r="L71">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="M71">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="N71">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O71">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q71">
-        <v>618</v>
+        <v>835</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K72">
-        <v>0.04887218045112782</v>
+        <v>0.05864197530864197</v>
       </c>
       <c r="L72">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M72">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="N72">
-        <v>0.93</v>
+        <v>0.86</v>
       </c>
       <c r="O72">
-        <v>0.06999999999999995</v>
+        <v>0.14</v>
       </c>
       <c r="P72" t="b">
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>253</v>
+        <v>305</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K73">
-        <v>0.04618937644341801</v>
+        <v>0.05617977528089887</v>
       </c>
       <c r="L73">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="M73">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="N73">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O73">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q73">
-        <v>826</v>
+        <v>252</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K74">
-        <v>0.04543325526932084</v>
+        <v>0.04590163934426229</v>
       </c>
       <c r="L74">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M74">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N74">
         <v>0.92</v>
@@ -3183,21 +3162,21 @@
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>2038</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K75">
-        <v>0.04333333333333333</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="L75">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M75">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -3209,47 +3188,47 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>287</v>
+        <v>294</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K76">
-        <v>0.03893805309734513</v>
+        <v>0.04489164086687306</v>
       </c>
       <c r="L76">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="M76">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="N76">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="O76">
-        <v>0.07999999999999996</v>
+        <v>0.12</v>
       </c>
       <c r="P76" t="b">
         <v>1</v>
       </c>
       <c r="Q76">
-        <v>543</v>
+        <v>617</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K77">
-        <v>0.03703703703703703</v>
+        <v>0.04320987654320987</v>
       </c>
       <c r="L77">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M77">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -3261,33 +3240,33 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="K78">
-        <v>0.03041087026852151</v>
+        <v>0.04267589388696655</v>
       </c>
       <c r="L78">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="M78">
-        <v>110</v>
+        <v>37</v>
       </c>
       <c r="N78">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="O78">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="P78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q78">
-        <v>2997</v>
+        <v>830</v>
       </c>
     </row>
     <row r="79" spans="10:17">
@@ -3295,77 +3274,129 @@
         <v>107</v>
       </c>
       <c r="K79">
-        <v>0.02606882168925964</v>
+        <v>0.04111111111111111</v>
       </c>
       <c r="L79">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="M79">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="N79">
-        <v>0.74</v>
+        <v>0.97</v>
       </c>
       <c r="O79">
-        <v>0.26</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P79" t="b">
         <v>1</v>
       </c>
       <c r="Q79">
-        <v>934</v>
+        <v>863</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K80">
+        <v>0.02898550724637681</v>
+      </c>
+      <c r="L80">
+        <v>28</v>
+      </c>
+      <c r="M80">
         <v>30</v>
       </c>
-      <c r="K80">
-        <v>0.01726844583987441</v>
-      </c>
-      <c r="L80">
-        <v>55</v>
-      </c>
-      <c r="M80">
-        <v>71</v>
-      </c>
       <c r="N80">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="O80">
-        <v>0.23</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P80" t="b">
         <v>1</v>
       </c>
       <c r="Q80">
-        <v>3130</v>
+        <v>938</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="K81">
-        <v>0.01551724137931034</v>
+        <v>0.02457161332040091</v>
       </c>
       <c r="L81">
+        <v>76</v>
+      </c>
+      <c r="M81">
+        <v>90</v>
+      </c>
+      <c r="N81">
+        <v>0.84</v>
+      </c>
+      <c r="O81">
+        <v>0.16</v>
+      </c>
+      <c r="P81" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q81">
+        <v>3017</v>
+      </c>
+    </row>
+    <row r="82" spans="10:17">
+      <c r="J82" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K82">
+        <v>0.02321932852212112</v>
+      </c>
+      <c r="L82">
+        <v>74</v>
+      </c>
+      <c r="M82">
+        <v>88</v>
+      </c>
+      <c r="N82">
+        <v>0.84</v>
+      </c>
+      <c r="O82">
+        <v>0.16</v>
+      </c>
+      <c r="P82" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q82">
+        <v>3113</v>
+      </c>
+    </row>
+    <row r="83" spans="10:17">
+      <c r="J83" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K83">
+        <v>0.01295336787564767</v>
+      </c>
+      <c r="L83">
+        <v>15</v>
+      </c>
+      <c r="M83">
         <v>18</v>
       </c>
-      <c r="M81">
-        <v>19</v>
-      </c>
-      <c r="N81">
-        <v>0.95</v>
-      </c>
-      <c r="O81">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="P81" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q81">
-        <v>1142</v>
+      <c r="N83">
+        <v>0.83</v>
+      </c>
+      <c r="O83">
+        <v>0.17</v>
+      </c>
+      <c r="P83" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q83">
+        <v>1143</v>
       </c>
     </row>
   </sheetData>
